--- a/datasets/stopword_concat.xlsx
+++ b/datasets/stopword_concat.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="959">
   <si>
     <t>stopword</t>
   </si>
@@ -2834,6 +2834,60 @@
   </si>
   <si>
     <t>CGV</t>
+  </si>
+  <si>
+    <t>하다</t>
+  </si>
+  <si>
+    <t>안</t>
+  </si>
+  <si>
+    <t>되다</t>
+  </si>
+  <si>
+    <t>가다</t>
+  </si>
+  <si>
+    <t>지다</t>
+  </si>
+  <si>
+    <t>다시</t>
+  </si>
+  <si>
+    <t>다가</t>
+  </si>
+  <si>
+    <t>뜨다</t>
+  </si>
+  <si>
+    <t>서다</t>
+  </si>
+  <si>
+    <t>들다</t>
+  </si>
+  <si>
+    <t>자다</t>
+  </si>
+  <si>
+    <t>깔다</t>
+  </si>
+  <si>
+    <t>해도</t>
+  </si>
+  <si>
+    <t>나오다</t>
+  </si>
+  <si>
+    <t>쓰다</t>
+  </si>
+  <si>
+    <t>이렇다</t>
+  </si>
+  <si>
+    <t>바코드</t>
+  </si>
+  <si>
+    <t>받다</t>
   </si>
 </sst>
 </file>
@@ -2929,10 +2983,10 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
@@ -7875,283 +7929,321 @@
       </c>
     </row>
     <row r="944">
-      <c r="A944" s="8"/>
+      <c r="A944" s="8" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="945">
-      <c r="A945" s="8"/>
+      <c r="A945" s="8" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="946">
-      <c r="A946" s="8"/>
+      <c r="A946" s="8" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="947">
-      <c r="A947" s="8"/>
+      <c r="A947" s="8" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="948">
-      <c r="A948" s="8"/>
+      <c r="A948" s="8" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="949">
-      <c r="A949" s="8"/>
+      <c r="A949" s="8" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="950">
-      <c r="A950" s="8"/>
+      <c r="A950" s="8" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="951">
-      <c r="A951" s="8"/>
+      <c r="A951" s="8" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="952">
-      <c r="A952" s="8"/>
+      <c r="A952" s="8" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="953">
-      <c r="A953" s="8"/>
+      <c r="A953" s="8" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="954">
-      <c r="A954" s="8"/>
+      <c r="A954" s="8" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="955">
-      <c r="A955" s="8"/>
+      <c r="A955" s="8" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="956">
-      <c r="A956" s="8"/>
+      <c r="A956" s="8" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="957">
-      <c r="A957" s="8"/>
+      <c r="A957" s="8" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="958">
-      <c r="A958" s="8"/>
+      <c r="A958" s="8" t="s">
+        <v>955</v>
+      </c>
     </row>
     <row r="959">
-      <c r="A959" s="8"/>
+      <c r="A959" s="8" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="960">
-      <c r="A960" s="8"/>
+      <c r="A960" s="8" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="961">
-      <c r="A961" s="8"/>
+      <c r="A961" s="8" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="962">
-      <c r="A962" s="8"/>
+      <c r="A962" s="8" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="963">
-      <c r="A963" s="8"/>
+      <c r="A963" s="9"/>
     </row>
     <row r="964">
-      <c r="A964" s="8"/>
+      <c r="A964" s="9"/>
     </row>
     <row r="965">
-      <c r="A965" s="8"/>
+      <c r="A965" s="9"/>
     </row>
     <row r="966">
-      <c r="A966" s="9"/>
+      <c r="A966" s="8"/>
     </row>
     <row r="967">
-      <c r="A967" s="8"/>
+      <c r="A967" s="9"/>
     </row>
     <row r="968">
-      <c r="A968" s="8"/>
+      <c r="A968" s="9"/>
     </row>
     <row r="969">
-      <c r="A969" s="8"/>
+      <c r="A969" s="9"/>
     </row>
     <row r="970">
-      <c r="A970" s="8"/>
+      <c r="A970" s="9"/>
     </row>
     <row r="971">
-      <c r="A971" s="8"/>
+      <c r="A971" s="9"/>
     </row>
     <row r="972">
-      <c r="A972" s="8"/>
+      <c r="A972" s="9"/>
     </row>
     <row r="973">
-      <c r="A973" s="8"/>
+      <c r="A973" s="9"/>
     </row>
     <row r="974">
-      <c r="A974" s="8"/>
+      <c r="A974" s="9"/>
     </row>
     <row r="975">
-      <c r="A975" s="8"/>
+      <c r="A975" s="9"/>
     </row>
     <row r="976">
-      <c r="A976" s="8"/>
+      <c r="A976" s="9"/>
     </row>
     <row r="977">
-      <c r="A977" s="8"/>
+      <c r="A977" s="9"/>
     </row>
     <row r="978">
-      <c r="A978" s="8"/>
+      <c r="A978" s="9"/>
     </row>
     <row r="979">
-      <c r="A979" s="8"/>
+      <c r="A979" s="9"/>
     </row>
     <row r="980">
-      <c r="A980" s="8"/>
+      <c r="A980" s="9"/>
     </row>
     <row r="981">
-      <c r="A981" s="8"/>
+      <c r="A981" s="9"/>
     </row>
     <row r="982">
-      <c r="A982" s="8"/>
+      <c r="A982" s="9"/>
     </row>
     <row r="983">
-      <c r="A983" s="8"/>
+      <c r="A983" s="9"/>
     </row>
     <row r="984">
-      <c r="A984" s="8"/>
+      <c r="A984" s="9"/>
     </row>
     <row r="985">
-      <c r="A985" s="8"/>
+      <c r="A985" s="9"/>
     </row>
     <row r="986">
-      <c r="A986" s="8"/>
+      <c r="A986" s="9"/>
     </row>
     <row r="987">
-      <c r="A987" s="8"/>
+      <c r="A987" s="9"/>
     </row>
     <row r="988">
-      <c r="A988" s="8"/>
+      <c r="A988" s="9"/>
     </row>
     <row r="989">
-      <c r="A989" s="8"/>
+      <c r="A989" s="9"/>
     </row>
     <row r="990">
-      <c r="A990" s="8"/>
+      <c r="A990" s="9"/>
     </row>
     <row r="991">
-      <c r="A991" s="8"/>
+      <c r="A991" s="9"/>
     </row>
     <row r="992">
-      <c r="A992" s="8"/>
+      <c r="A992" s="9"/>
     </row>
     <row r="993">
-      <c r="A993" s="8"/>
+      <c r="A993" s="9"/>
     </row>
     <row r="994">
-      <c r="A994" s="8"/>
+      <c r="A994" s="9"/>
     </row>
     <row r="995">
-      <c r="A995" s="8"/>
+      <c r="A995" s="9"/>
     </row>
     <row r="996">
-      <c r="A996" s="8"/>
+      <c r="A996" s="9"/>
     </row>
     <row r="997">
-      <c r="A997" s="8"/>
+      <c r="A997" s="9"/>
     </row>
     <row r="998">
-      <c r="A998" s="8"/>
+      <c r="A998" s="9"/>
     </row>
     <row r="999">
-      <c r="A999" s="8"/>
+      <c r="A999" s="9"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="8"/>
+      <c r="A1000" s="9"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="8"/>
+      <c r="A1001" s="9"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="8"/>
+      <c r="A1002" s="9"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="8"/>
+      <c r="A1003" s="9"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="8"/>
+      <c r="A1004" s="9"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="8"/>
+      <c r="A1005" s="9"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="8"/>
+      <c r="A1006" s="9"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="8"/>
+      <c r="A1007" s="9"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="8"/>
+      <c r="A1008" s="9"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="8"/>
+      <c r="A1009" s="9"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="8"/>
+      <c r="A1010" s="9"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="8"/>
+      <c r="A1011" s="9"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="8"/>
+      <c r="A1012" s="9"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="8"/>
+      <c r="A1013" s="9"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="8"/>
+      <c r="A1014" s="9"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="8"/>
+      <c r="A1015" s="9"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="8"/>
+      <c r="A1016" s="9"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="8"/>
+      <c r="A1017" s="9"/>
     </row>
     <row r="1018">
-      <c r="A1018" s="8"/>
+      <c r="A1018" s="9"/>
     </row>
     <row r="1019">
-      <c r="A1019" s="8"/>
+      <c r="A1019" s="9"/>
     </row>
     <row r="1020">
-      <c r="A1020" s="8"/>
+      <c r="A1020" s="9"/>
     </row>
     <row r="1021">
-      <c r="A1021" s="8"/>
+      <c r="A1021" s="9"/>
     </row>
     <row r="1022">
-      <c r="A1022" s="8"/>
+      <c r="A1022" s="9"/>
     </row>
     <row r="1023">
-      <c r="A1023" s="8"/>
+      <c r="A1023" s="9"/>
     </row>
     <row r="1024">
-      <c r="A1024" s="8"/>
+      <c r="A1024" s="9"/>
     </row>
     <row r="1025">
-      <c r="A1025" s="8"/>
+      <c r="A1025" s="9"/>
     </row>
     <row r="1026">
-      <c r="A1026" s="8"/>
+      <c r="A1026" s="9"/>
     </row>
     <row r="1027">
-      <c r="A1027" s="8"/>
+      <c r="A1027" s="9"/>
     </row>
     <row r="1028">
-      <c r="A1028" s="8"/>
+      <c r="A1028" s="9"/>
     </row>
     <row r="1029">
-      <c r="A1029" s="8"/>
+      <c r="A1029" s="9"/>
     </row>
     <row r="1030">
-      <c r="A1030" s="8"/>
+      <c r="A1030" s="9"/>
     </row>
     <row r="1031">
-      <c r="A1031" s="8"/>
+      <c r="A1031" s="9"/>
     </row>
     <row r="1032">
-      <c r="A1032" s="8"/>
+      <c r="A1032" s="9"/>
     </row>
     <row r="1033">
-      <c r="A1033" s="8"/>
+      <c r="A1033" s="9"/>
     </row>
     <row r="1034">
-      <c r="A1034" s="8"/>
+      <c r="A1034" s="9"/>
     </row>
     <row r="1035">
-      <c r="A1035" s="8"/>
+      <c r="A1035" s="9"/>
     </row>
     <row r="1036">
-      <c r="A1036" s="8"/>
+      <c r="A1036" s="9"/>
     </row>
     <row r="1037">
       <c r="A1037" s="10"/>

--- a/datasets/stopword_concat.xlsx
+++ b/datasets/stopword_concat.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="966">
   <si>
     <t>stopword</t>
   </si>
@@ -2888,6 +2888,27 @@
   </si>
   <si>
     <t>받다</t>
+  </si>
+  <si>
+    <t>오다</t>
+  </si>
+  <si>
+    <t>넘다</t>
+  </si>
+  <si>
+    <t>더니</t>
+  </si>
+  <si>
+    <t>이다</t>
+  </si>
+  <si>
+    <t>정말</t>
+  </si>
+  <si>
+    <t>갑자기</t>
+  </si>
+  <si>
+    <t>겠다</t>
   </si>
 </sst>
 </file>
@@ -8024,25 +8045,39 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" s="9"/>
+      <c r="A963" s="8" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="964">
-      <c r="A964" s="9"/>
+      <c r="A964" s="8" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="965">
-      <c r="A965" s="9"/>
+      <c r="A965" s="8" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="966">
-      <c r="A966" s="8"/>
+      <c r="A966" s="8" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="967">
-      <c r="A967" s="9"/>
+      <c r="A967" s="8" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="968">
-      <c r="A968" s="9"/>
+      <c r="A968" s="8" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="969">
-      <c r="A969" s="9"/>
+      <c r="A969" s="8" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="970">
       <c r="A970" s="9"/>
